--- a/CoreRulebook/Data/Archetypes/Berserker.xlsx
+++ b/CoreRulebook/Data/Archetypes/Berserker.xlsx
@@ -315,7 +315,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CoreRulebook/Data/Archetypes/Berserker.xlsx
+++ b/CoreRulebook/Data/Archetypes/Berserker.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eternal Wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d12</t>
   </si>
   <si>
     <t xml:space="preserve">$\\infty$</t>
@@ -315,10 +318,10 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.29"/>
@@ -811,10 +814,10 @@
         <v>53</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
